--- a/Testing/Test-Case.xlsx
+++ b/Testing/Test-Case.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bassam\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bassam\Documents\repos\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13500" windowHeight="5052"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
   <si>
     <t>Req. ID</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>System Components</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t>Check when the user write a specific value on an input pin and came back to read this written value, the value should be the same</t>
@@ -113,9 +110,6 @@
   </si>
   <si>
     <t>Test ID</t>
-  </si>
-  <si>
-    <t>All input pins are working as inputs and the LED has been turned on</t>
   </si>
   <si>
     <t>All input pins should work as inputs, so the LED should be turned on</t>
@@ -172,12 +166,6 @@
     <t>All output pins should work as outputs</t>
   </si>
   <si>
-    <t>All output pins work as outputs</t>
-  </si>
-  <si>
-    <t>when the user write a specific value on an input pin and came back to read this written value, the value is the same</t>
-  </si>
-  <si>
     <t>PWM_Motor</t>
   </si>
   <si>
@@ -213,9 +201,6 @@
 2- Press any speed button.</t>
   </si>
   <si>
-    <t>It's working correctly</t>
-  </si>
-  <si>
     <t>The device should work at this specific speed</t>
   </si>
   <si>
@@ -263,16 +248,10 @@
     <t>When the DC Motor at a specific speed, the device should be stable at this speed untill the user change it</t>
   </si>
   <si>
-    <t>When the DC Motor at a specific speed, the device is stable at this speed untill the user change it</t>
-  </si>
-  <si>
     <t>Check if the motor will start at the first speed everytime the user turn it on again whatever it was at any speed degree</t>
   </si>
   <si>
     <t>The motor will start at the first speed everytime the user turn it on again whatever it was at any speed degree</t>
-  </si>
-  <si>
-    <t>The motor is starting at the first speed everytime the user turn it on again whatever it was at any speed degree</t>
   </si>
   <si>
     <t>1- Connect the device or the demo to the electricity.
@@ -295,16 +274,7 @@
     <t>The output PWM signal should be enough to start up the motor</t>
   </si>
   <si>
-    <t>The output PWM signal is enough to start up the motor</t>
-  </si>
-  <si>
     <t>The output PWM signal should be enough to rotate the motor at different speeds</t>
-  </si>
-  <si>
-    <t>The output PWM signal is enough to rotate the motor at different speeds</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
   <si>
     <t>PWM_Driver</t>
@@ -866,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -892,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>2</v>
@@ -918,203 +888,177 @@
     </row>
     <row r="2" spans="1:10" ht="227.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E2" s="12">
         <v>1</v>
       </c>
       <c r="F2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>32</v>
-      </c>
       <c r="H2" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>6</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:10" ht="233.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
       <c r="B3" s="23"/>
       <c r="C3" s="18" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="19">
         <v>2</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>6</v>
-      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:10" ht="246.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
       <c r="B4" s="23"/>
       <c r="C4" s="18" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="19">
         <v>3</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>6</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="1:10" ht="147" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E5" s="19">
         <v>1</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>6</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="20"/>
     </row>
     <row r="6" spans="1:10" ht="223.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22"/>
       <c r="B6" s="23"/>
       <c r="C6" s="18" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="12">
         <v>2</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>73</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>6</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" ht="234.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="22" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I8" s="16"/>
-      <c r="J8" s="20" t="s">
-        <v>6</v>
-      </c>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:10" ht="210" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22"/>
@@ -1122,165 +1066,143 @@
       <c r="C9" s="22"/>
       <c r="D9" s="24"/>
       <c r="E9" s="12" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I9" s="16"/>
-      <c r="J9" s="21" t="s">
-        <v>73</v>
-      </c>
+      <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>6</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:10" ht="132" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22"/>
       <c r="B11" s="23"/>
       <c r="C11" s="12" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>6</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22"/>
       <c r="B12" s="23"/>
       <c r="C12" s="12" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>66</v>
-      </c>
       <c r="H12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>6</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:10" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22"/>
       <c r="B13" s="23"/>
       <c r="C13" s="12" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F13" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>67</v>
-      </c>
       <c r="H13" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>6</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="20"/>
     </row>
     <row r="14" spans="1:10" ht="134.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
       <c r="B14" s="23"/>
       <c r="C14" s="12" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="J14" s="21" t="s">
-        <v>73</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="21"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
